--- a/docs/metaed-project/MetaEdOutput/Documentation/Ed-Fi-Handbook/Ed-Fi-Handbook.xlsx
+++ b/docs/metaed-project/MetaEdOutput/Documentation/Ed-Fi-Handbook/Ed-Fi-Handbook.xlsx
@@ -19824,7 +19824,7 @@
         <v>UserLMSSectionAssociation (Fizz)</v>
       </c>
       <c r="C744" t="str">
-        <v>The association of a system user and course section. For a student, this would be a section enrollment. For a teacher, this would be a section assignment.</v>
+        <v>The association of a user and section. For a student, this would be a section enrollment. For a teacher, this would be a section assignment.</v>
       </c>
       <c r="D744" t="str">
         <v>Association Class</v>
@@ -19972,7 +19972,7 @@
         <v>AssignmentSubmission (Fizz)</v>
       </c>
       <c r="C749" t="str">
-        <v>A student's submission for an assignment.</v>
+        <v>A user's submission of course work for an assignment.</v>
       </c>
       <c r="D749" t="str">
         <v>Class</v>
@@ -20006,7 +20006,7 @@
         <v>LMSGrade (Fizz)</v>
       </c>
       <c r="C750" t="str">
-        <v>The grade received for a section enrollment.</v>
+        <v>A grade assigned to a user in a section.</v>
       </c>
       <c r="D750" t="str">
         <v>Class</v>
@@ -20037,7 +20037,7 @@
         <v>LMSSection (Fizz)</v>
       </c>
       <c r="C751" t="str">
-        <v>A course section defined in the source system.</v>
+        <v>An organized grouping of course content and users over a period of time for the purpose of providing instruction.</v>
       </c>
       <c r="D751" t="str">
         <v>Class</v>
@@ -20074,7 +20074,7 @@
         <v>User (Fizz)</v>
       </c>
       <c r="C752" t="str">
-        <v>A system user.</v>
+        <v>A person using the instructional system.</v>
       </c>
       <c r="D752" t="str">
         <v>Class</v>
@@ -20144,7 +20144,7 @@
         <v>UserLMSActivity (Fizz)</v>
       </c>
       <c r="C754" t="str">
-        <v>A user's activity events within the source system.</v>
+        <v>An activity performed by a user within the instructional system.</v>
       </c>
       <c r="D754" t="str">
         <v>Class</v>
@@ -20346,7 +20346,7 @@
         <v>Grade</v>
       </c>
       <c r="C762" t="str">
-        <v>The user's letter or numeric grade for the section enrollment.</v>
+        <v>The user's letter or numeric grade for the section.</v>
       </c>
       <c r="D762" t="str">
         <v>String</v>
